--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -191,7 +257,7 @@
     <col min="5" max="5" width="14.64453125" customWidth="true"/>
     <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.5211735414632741</v>
+        <v>0.52439083130676534</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.52598171079878431</v>
+        <v>0.52855108587635113</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.038982071118574657</v>
+        <v>-0.039816005141110888</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0089185921831518751</v>
+        <v>0.0088265381664081252</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.039669612432967773</v>
+        <v>-0.039289001204843979</v>
       </c>
       <c r="G3" s="0">
-        <v>0.060292895947536548</v>
+        <v>0.060244788775087377</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.013001580720526913</v>
+        <v>-0.012962878891752821</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0095698121382542141</v>
+        <v>0.0094766515498109372</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.017680133338636939</v>
+        <v>0.017680161315987042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.60509944368391788</v>
+        <v>0.60833135551560202</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0048010374921714444</v>
+        <v>0.0050514480874608945</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.018885840430285454</v>
+        <v>0.018811350046539197</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0054532788149249832</v>
+        <v>-0.0054351773604640035</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.8115432051190802e-05</v>
+        <v>1.3276209539070556e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>0.056582793918030151</v>
+        <v>0.056861841202293928</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0080499353214757274</v>
+        <v>0.008244241676042879</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0037667108939554161</v>
+        <v>-0.0037667102221610183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.62824694373830081</v>
+        <v>0.63197806523830857</v>
       </c>
       <c r="C5" s="0">
-        <v>0.096618008538580824</v>
+        <v>0.099129773150896022</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.03839660217692889</v>
+        <v>-0.039317839729872441</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0049532243839070919</v>
+        <v>0.0045087176547519928</v>
       </c>
       <c r="F5" s="0">
-        <v>0.011432860443408806</v>
+        <v>0.010675200686873408</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.088682839616537168</v>
+        <v>-0.088574792414746223</v>
       </c>
       <c r="H5" s="0">
-        <v>0.006374974816406578</v>
+        <v>0.0063742728042384296</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0061895724603239759</v>
+        <v>0.0061931083922425485</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.024658301205221722</v>
+        <v>0.024658269178322811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.58785985269851582</v>
+        <v>0.5878910012134515</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021307637509512149</v>
+        <v>0.01805130140294051</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.17930314818550178</v>
+        <v>-0.17906889077800878</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0050302985154223436</v>
+        <v>-0.00497185662007011</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.010530542611454233</v>
+        <v>0.01059681194717392</v>
       </c>
       <c r="I6" s="0">
-        <v>0.099394035646459836</v>
+        <v>0.098591424053942195</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.01271413989371295</v>
+        <v>0.012714145969165203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46635364726709805</v>
+        <v>0.46544121838368696</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.056986978822408288</v>
+        <v>0.057049017093924625</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.027070493166639707</v>
+        <v>-0.027634349024563916</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16446830616708549</v>
+        <v>-0.16500189097563284</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0058422667146560397</v>
+        <v>0.0059487372413561087</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0084343411682106916</v>
+        <v>-0.0084489787272403367</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.015637689533453791</v>
+        <v>0.015637681562391759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24310617825527953</v>
+        <v>0.24142114720199867</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.21187459262489175</v>
+        <v>-0.21320939972021696</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.065134358141351573</v>
+        <v>0.065032745961350322</v>
       </c>
       <c r="F8" s="0">
-        <v>0.017263824774750573</v>
+        <v>0.017243552992701503</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00070883286846566685</v>
+        <v>-0.00071478708502448164</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.08831763117498774</v>
+        <v>-0.087627723568278221</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0047445952595755458</v>
+        <v>-0.0047444597622204321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.16914739410809493</v>
+        <v>0.16795036311255895</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.069648173477270481</v>
+        <v>-0.070043456706522803</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.01099366705689891</v>
+        <v>-0.01112054278432561</v>
       </c>
       <c r="F9" s="0">
-        <v>0.062723690324512388</v>
+        <v>0.063155970192043193</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.041295337482307196</v>
+        <v>-0.040729205728932211</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00034111514925555211</v>
+        <v>0.00034516295441055226</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0090338650672378146</v>
+        <v>-0.009026166697412635</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0060525465372381348</v>
+        <v>-0.0060525453187001976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32113661425202217</v>
+        <v>0.3242856325028135</v>
       </c>
       <c r="C10" s="0">
-        <v>0.14247525012634349</v>
+        <v>0.14676788233833171</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.01316845360968162</v>
+        <v>0.013358343011552906</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0064125950564069625</v>
+        <v>-0.0063968174514115409</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0015724332581433581</v>
+        <v>-0.0015729448773010304</v>
       </c>
       <c r="I10" s="0">
-        <v>0.025232080825030818</v>
+        <v>0.025075018748709727</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0011710342911075363</v>
+        <v>-0.0011658051272363228</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.019730501811470819</v>
+        <v>-0.019730407252390891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.52961803575056055</v>
+        <v>0.53391973827744532</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.28145724032899244</v>
+        <v>0.28094572124429884</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.072344537066317077</v>
+        <v>-0.071343305796741849</v>
       </c>
       <c r="F11" s="0">
-        <v>0.053922750510211864</v>
+        <v>0.054437919315142448</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.11559129220611386</v>
+        <v>-0.11478834020357531</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0089806044754294542</v>
+        <v>-0.008962732673955056</v>
       </c>
       <c r="I11" s="0">
-        <v>0.10293717642234906</v>
+        <v>0.10226415300094718</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.032919312015154578</v>
+        <v>-0.03291930911148444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.23171307707285116</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.27145343271980371</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0044167678267104989</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0015494669920004087</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00050165941518694743</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.019911260830513165</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0043740734203794318</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,17 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="14.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.52439083130676534</v>
+        <v>0.52551181339620878</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.52855108587635113</v>
+        <v>0.52878923297680169</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.039816005141110888</v>
+        <v>-0.039772263230215932</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0088265381664081252</v>
+        <v>0.0088117930648830365</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.039289001204843979</v>
+        <v>-0.039928101670160039</v>
       </c>
       <c r="G3" s="0">
-        <v>0.060244788775087377</v>
+        <v>0.060113009157975669</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.012962878891752821</v>
+        <v>-0.013043354815656745</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0094766515498109372</v>
+        <v>0.0094161685181522545</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.017680161315987042</v>
+        <v>0.017680168555614717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.60833135551560202</v>
+        <v>0.60893161458642298</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0050514480874608945</v>
+        <v>0.0048750853746550287</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.018811350046539197</v>
+        <v>0.018805859819487389</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0054351773604640035</v>
+        <v>-0.0054242821031927225</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.3276209539070556e-05</v>
+        <v>-0.00015457868201638938</v>
       </c>
       <c r="I4" s="0">
-        <v>0.056861841202293928</v>
+        <v>0.057451312756787457</v>
       </c>
       <c r="J4" s="0">
-        <v>0.008244241676042879</v>
+        <v>0.0083556812450252781</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0037667102221610183</v>
+        <v>-0.0037666968011247359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.63197806523830857</v>
+        <v>0.63294292623874704</v>
       </c>
       <c r="C5" s="0">
-        <v>0.099129773150896022</v>
+        <v>0.097095011603596668</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.039317839729872441</v>
+        <v>-0.037750227712984009</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0045087176547519928</v>
+        <v>0.0050725074193986109</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010675200686873408</v>
+        <v>0.011012771347932566</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.088574792414746223</v>
+        <v>-0.088635089535200301</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0063742728042384296</v>
+        <v>0.0063462985474851859</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0061931083922425485</v>
+        <v>0.006211730978684285</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.024658269178322811</v>
+        <v>0.024658309003411039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.5878910012134515</v>
+        <v>0.59392740538255384</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01805130140294051</v>
+        <v>0.024307641681766336</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.17906889077800878</v>
+        <v>-0.17961568845622444</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00497185662007011</v>
+        <v>-0.0049441576955380354</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.01059681194717392</v>
+        <v>0.010733434389460866</v>
       </c>
       <c r="I6" s="0">
-        <v>0.098591424053942195</v>
+        <v>0.097789167727311554</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.012714145969165203</v>
+        <v>0.012714081497030572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46544121838368696</v>
+        <v>0.47034792451597635</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.057049017093924625</v>
+        <v>0.055903189271181923</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.027634349024563916</v>
+        <v>-0.028640586494430284</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16500189097563284</v>
+        <v>-0.16396319190182085</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0059487372413561087</v>
+        <v>0.0059300139701610631</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0084489787272403367</v>
+        <v>-0.00844658813433731</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.015637681562391759</v>
+        <v>0.015637682422667942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.24142114720199867</v>
+        <v>0.23597318380186871</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.21320939972021696</v>
+        <v>-0.22449570953295495</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.065032745961350322</v>
+        <v>0.065589172674678023</v>
       </c>
       <c r="F8" s="0">
-        <v>0.017243552992701503</v>
+        <v>0.017267227951211449</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00071478708502448164</v>
+        <v>-0.00069981913382459687</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.087627723568278221</v>
+        <v>-0.087291170839813345</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0047444597622204321</v>
+        <v>-0.0047444418334041671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.16795036311255895</v>
+        <v>0.16169771314462897</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.070043456706522803</v>
+        <v>-0.069493931875855827</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.01112054278432561</v>
+        <v>-0.011188747746852683</v>
       </c>
       <c r="F9" s="0">
-        <v>0.063155970192043193</v>
+        <v>0.062348380093268076</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.040729205728932211</v>
+        <v>-0.041171002433323479</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00034516295441055226</v>
+        <v>0.00030448144528588553</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.009026166697412635</v>
+        <v>-0.0090221095705268328</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0060525453187001976</v>
+        <v>-0.0060525405692348766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.3242856325028135</v>
+        <v>0.31638244945075594</v>
       </c>
       <c r="C10" s="0">
-        <v>0.14676788233833171</v>
+        <v>0.14516038814416793</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.013358343011552906</v>
+        <v>0.012935269647631574</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0063968174514115409</v>
+        <v>-0.0064647156238171735</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0015729448773010304</v>
+        <v>-0.0015721480849160373</v>
       </c>
       <c r="I10" s="0">
-        <v>0.025075018748709727</v>
+        <v>0.02548961636632097</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0011658051272363228</v>
+        <v>-0.0011332040553574156</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.019730407252390891</v>
+        <v>-0.019730470087902879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.53391973827744532</v>
+        <v>0.53034405076179492</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.28094572124429884</v>
+        <v>0.28328622927489511</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.071343305796741849</v>
+        <v>-0.07055660820858399</v>
       </c>
       <c r="F11" s="0">
-        <v>0.054437919315142448</v>
+        <v>0.054178234596373609</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.11478834020357531</v>
+        <v>-0.11496103682802974</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.008962732673955056</v>
+        <v>-0.008899469205269012</v>
       </c>
       <c r="I11" s="0">
-        <v>0.10226415300094718</v>
+        <v>0.10383360828260557</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.03291930911148444</v>
+        <v>-0.032919356600952576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.23171307707285116</v>
+        <v>0.10072317335726358</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.27145343271980371</v>
+        <v>-0.31109258641295301</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0044167678267104989</v>
+        <v>-0.0044001422532169727</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0015494669920004087</v>
+        <v>-0.012598362472392967</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00050165941518694743</v>
+        <v>-0.010102372915057504</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.019911260830513165</v>
+        <v>-0.088510530581980121</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0043740734203794318</v>
+        <v>-0.0029168827689307619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.074591513201167969</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.20635474316057034</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.21461618437381202</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.063267132768880352</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.011209087079538044</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0054533709781896637</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0062507338541404984</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.17197738400348325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.168806296027117</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.043814063647540355</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.0042022263565649337</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0062391747583250452</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00015506840862124569</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.047638145668379657</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00057055669964765909</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -401,47 +476,47 @@
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.52551181339620878</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.52878923297680169</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.60893161458642298</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.63294292623874704</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.59392740538255384</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.47034792451597635</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.23597318380186871</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.16169771314462897</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.31638244945075594</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.53034405076179492</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.10072317335726358</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>-0.074591513201167969</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.168806296027117</v>
+        <v>-0.1881758926988682</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.043814063647540355</v>
+        <v>-0.032039791231861937</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0042022263565649337</v>
+        <v>0.0047696153699647217</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0062391747583250452</v>
+        <v>-0.0072434463580900235</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00015506840862124569</v>
+        <v>0.0019327140891679021</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.047638145668379657</v>
+        <v>-0.080669172205277348</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00057055669964765909</v>
+        <v>-0.00033429916160354622</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.48409743565362934</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.24119107762127107</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.017232653985724752</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.093244797350282571</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0076375042755434837</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.12310510442250439</v>
       </c>
     </row>
   </sheetData>
